--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2249498.902839873</v>
+        <v>2357649.995754168</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9463640.409733664</v>
+        <v>9469683.420320923</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>269.9313896413524</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,10 +670,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>69.74721243205259</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,22 +822,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>15.45197461911665</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.22331801800635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>402.2504824235943</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>85.44683811067662</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1057,22 +1059,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>18.31267915758287</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>50.9807481254283</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>315.8864050262698</v>
+        <v>173.2128801502889</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>20.51984767220267</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>211.8979492262037</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695516</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>14.53306611598937</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272881</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389244</v>
+        <v>64.91921363453658</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695516</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>24.83266606353437</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272881</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238279</v>
+        <v>176.76214411214</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,19 +1849,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1903,16 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272881</v>
+        <v>105.1820732698676</v>
       </c>
       <c r="U19" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>72.57619040703815</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2144,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.184474389244</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>186.3821020736988</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="X22" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>135.3135037226517</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695544</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>4.974488840435588</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.524138292269</v>
+        <v>120.1447214650588</v>
       </c>
       <c r="H28" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856568</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892443</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>139.7072979240919</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856568</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012183</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892443</v>
+        <v>275.330023919727</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085811724</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.524138292269</v>
+        <v>99.9742741983392</v>
       </c>
       <c r="H34" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856568</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012183</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3266,13 +3268,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.930370072262</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3317,22 +3319,22 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881288</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701351</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856568</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012183</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>11.76284745946401</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3661,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922734</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>118.8241514613401</v>
+        <v>175.5375697851077</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3901,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1.79977260571614</v>
+        <v>19.91555826189058</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4150,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>728.3028554854573</v>
+        <v>1287.435190625613</v>
       </c>
       <c r="C2" t="n">
-        <v>455.6448861507579</v>
+        <v>918.472673685201</v>
       </c>
       <c r="D2" t="n">
-        <v>455.6448861507579</v>
+        <v>918.472673685201</v>
       </c>
       <c r="E2" t="n">
-        <v>69.85663355251364</v>
+        <v>532.6844210869567</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>121.6985162973492</v>
       </c>
       <c r="G2" t="n">
         <v>51.24678656800311</v>
@@ -4328,16 +4330,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056585</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.507785786471</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X2" t="n">
-        <v>1505.042027525391</v>
+        <v>2064.174362665546</v>
       </c>
       <c r="Y2" t="n">
-        <v>1114.902695549579</v>
+        <v>1674.035030689734</v>
       </c>
     </row>
     <row r="3">
@@ -4389,13 +4391,13 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4407,28 +4409,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>815.114548125109</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1178.376567084329</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N3" t="n">
-        <v>1565.661695681274</v>
+        <v>1614.486495938517</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>552.5163874949501</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>383.5802045670432</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>383.5802045670432</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>383.5802045670432</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>383.5802045670432</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>215.5937398753218</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>66.85484173882801</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.23396574994</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.23396574994</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V4" t="n">
-        <v>1337.23396574994</v>
+        <v>962.1544032232072</v>
       </c>
       <c r="W4" t="n">
-        <v>1337.23396574994</v>
+        <v>962.1544032232072</v>
       </c>
       <c r="X4" t="n">
-        <v>1337.23396574994</v>
+        <v>734.1648523251898</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>734.1648523251898</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1287.435190625612</v>
+        <v>827.490450019752</v>
       </c>
       <c r="C5" t="n">
-        <v>918.4726736852001</v>
+        <v>827.490450019752</v>
       </c>
       <c r="D5" t="n">
-        <v>560.2069750784497</v>
+        <v>469.2247514130015</v>
       </c>
       <c r="E5" t="n">
-        <v>560.2069750784497</v>
+        <v>469.2247514130015</v>
       </c>
       <c r="F5" t="n">
-        <v>149.2210702888421</v>
+        <v>62.9111328033102</v>
       </c>
       <c r="G5" t="n">
-        <v>137.556724053535</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926625</v>
+        <v>1977.695380320765</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.640120926625</v>
+        <v>1977.695380320765</v>
       </c>
       <c r="X5" t="n">
-        <v>2064.174362665545</v>
+        <v>1604.229622059685</v>
       </c>
       <c r="Y5" t="n">
-        <v>1674.035030689734</v>
+        <v>1214.090290083874</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4643,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>551.6025748766943</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>846.3061319081661</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>474.7770143030104</v>
+        <v>665.1026499885493</v>
       </c>
       <c r="C7" t="n">
-        <v>305.8408313751036</v>
+        <v>496.1664670606424</v>
       </c>
       <c r="D7" t="n">
-        <v>305.8408313751036</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>305.8408313751036</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4750,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1421.319716519628</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1166.635228313741</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W7" t="n">
-        <v>877.2180582767803</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X7" t="n">
-        <v>877.2180582767803</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y7" t="n">
-        <v>656.4254791332502</v>
+        <v>846.751114818789</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1636.624422581789</v>
+        <v>759.7040301531877</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>759.7040301531877</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>759.7040301531877</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872922</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="V8" t="n">
-        <v>2752.998168088795</v>
+        <v>2262.677615724315</v>
       </c>
       <c r="W8" t="n">
-        <v>2400.229512818681</v>
+        <v>1909.908960454201</v>
       </c>
       <c r="X8" t="n">
-        <v>2026.763754557601</v>
+        <v>1536.443202193121</v>
       </c>
       <c r="Y8" t="n">
-        <v>1636.624422581789</v>
+        <v>1146.303870217309</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>298.3188265310616</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>593.0223835625334</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1861.380351120611</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2193.450786296773</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2440.63352012907</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>651.5308283972846</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="C10" t="n">
-        <v>482.5946454693777</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="D10" t="n">
-        <v>332.478006057042</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="E10" t="n">
-        <v>184.5649124746488</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="F10" t="n">
-        <v>184.5649124746488</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312206</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1225.779039682638</v>
       </c>
       <c r="V10" t="n">
-        <v>1161.740577577775</v>
+        <v>971.0945514767509</v>
       </c>
       <c r="W10" t="n">
-        <v>872.3234075408147</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X10" t="n">
-        <v>872.3234075408147</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y10" t="n">
-        <v>651.5308283972846</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,7 +5059,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5069,10 +5071,10 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5127,19 +5129,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1031.260321675065</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>862.3241387471579</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>712.2074993348224</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>564.2944057524294</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>417.4044582545192</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>250.2083589693993</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>108.4965278115975</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
         <v>435.7419440038345</v>
@@ -5209,40 +5211,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570831</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279816</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853375</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580275</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832677</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487582</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510523</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854721</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648834</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648834</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X13" t="n">
-        <v>1433.701365648834</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y13" t="n">
-        <v>1212.908786505304</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="14">
@@ -5258,37 +5260,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,19 +5299,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123002</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5361,13 +5363,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>634.5603720565526</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M15" t="n">
-        <v>1231.938859683105</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
         <v>1859.536823237711</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>555.815803413395</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>555.815803413395</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>555.815803413395</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>407.902709831002</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330918</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2421.879582505985</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2239.024748160889</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2019.423283183831</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1730.348056528029</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V16" t="n">
-        <v>1475.663568322142</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1186.246398285182</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>958.2568473871645</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>737.4642682436345</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5497,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5598,16 +5600,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1802.364528928006</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>2354.274259167293</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>950.7540666811325</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532257</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408901</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408901</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429798</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578599</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487569</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.46108051051</v>
+        <v>2273.672861378251</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854708</v>
+        <v>1984.597634722449</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648822</v>
+        <v>1729.913146516562</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648822</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750804</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y19" t="n">
-        <v>1132.402531511372</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="20">
@@ -5753,16 +5755,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5792,7 +5794,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5831,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.690509413529</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>700.7543264856222</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>550.6376870732865</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908935</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908935</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057736</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854708</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.121104285316</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.121104285316</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.131553387298</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.338974243768</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5969,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6072,22 +6074,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6190,7 +6192,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6214,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6239,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,25 +6305,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>808.8888553856839</v>
+        <v>1052.829365488567</v>
       </c>
       <c r="C28" t="n">
-        <v>639.9526724577768</v>
+        <v>883.8931825606599</v>
       </c>
       <c r="D28" t="n">
-        <v>489.8360330454409</v>
+        <v>733.7765431483241</v>
       </c>
       <c r="E28" t="n">
-        <v>489.8360330454409</v>
+        <v>585.863449565931</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429807</v>
+        <v>438.9735020680206</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578605</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000584</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235163</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258104</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602302</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396415</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359454</v>
+        <v>1683.259960360354</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.329899359454</v>
+        <v>1455.270409462336</v>
       </c>
       <c r="Y28" t="n">
-        <v>990.5373202159237</v>
+        <v>1234.477830318806</v>
       </c>
     </row>
     <row r="29">
@@ -6452,10 +6454,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6467,13 +6469,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6543,16 +6545,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.2707707770296</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>634.3345878491225</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>484.2179484367866</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>484.2179484367866</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>484.2179484367866</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.0218491516664</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487566</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510507</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854704</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648817</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648817</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.7118147508</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072695</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C33" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D33" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>2453.684166529967</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>3051.062654156519</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>3678.660617711126</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>4230.570347950413</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R33" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S33" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T33" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U33" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V33" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W33" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X33" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y33" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400688</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429807</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429807</v>
+        <v>2438.670847218162</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429807</v>
+        <v>2438.670847218162</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429807</v>
+        <v>2438.670847218162</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578605</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000584</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782955</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.741944003834</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.140538179774</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910808</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279801</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580259</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832661</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487566</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510507</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854704</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648817</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611856</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138389</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703087</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6932,7 +6934,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6941,16 +6943,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.913939313768</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>950.7540666811342</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>781.8178837532271</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408912</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408912</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429807</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578605</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279788</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853346</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580245</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832648</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487552</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510493</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854691</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648804</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611843</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611843</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1132.402531511374</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
@@ -7166,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,37 +7189,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,22 +7247,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>710.2486053718725</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>614.6217844681063</v>
+        <v>1098.667160263531</v>
       </c>
       <c r="C40" t="n">
-        <v>614.6217844681063</v>
+        <v>929.7309773356241</v>
       </c>
       <c r="D40" t="n">
-        <v>464.5051450557705</v>
+        <v>779.6143379232883</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408952</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429848</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1685.615852542402</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1457.626301644385</v>
       </c>
       <c r="Y40" t="n">
-        <v>796.270249298346</v>
+        <v>1280.315625093771</v>
       </c>
     </row>
     <row r="41">
@@ -7391,7 +7393,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7400,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.675093211831</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>2828.967015012343</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>3456.56497856695</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>4008.474708806237</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>4432.097858301305</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>4665.359518676188</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8061,16 +8063,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>224.3355197601779</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039159</v>
+        <v>231.2582814363238</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>129.7511347056851</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179986</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8538,10 +8540,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179985</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071651</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>6.454437538928261</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154984</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>66.73277020257601</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,19 +23469,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>221.2652607547076</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.54258064658718</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>75.37549921168795</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23896,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>112.2233770574207</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365908</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>146.0084629450565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24136,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>65.75554125012906</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365908</v>
+        <v>40.64330621514819</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>13.30196929556061</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24607,13 +24609,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>140.4465591824958</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>45.37941682721006</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012183</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890373</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5874149221320977</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,19 +24888,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>10.85445046951713</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365912</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405107</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409392964</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>206.8218058926309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>99.76050189075468</v>
+        <v>43.04708356698711</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>138.4949402405078</v>
+        <v>120.3791545843333</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>827751.1534794191</v>
+        <v>834287.273730597</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>813855.9833051421</v>
+        <v>813855.9833051418</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>813855.9833051417</v>
+        <v>813855.9833051418</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>813855.9833051417</v>
+        <v>813855.9833051418</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>813855.9833051417</v>
+        <v>813855.9833051418</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>813855.9833051413</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>813855.9833051417</v>
+        <v>813855.9833051418</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.327398213</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.327398213</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="F2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="G2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="J2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="H2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="K2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675041</v>
-      </c>
       <c r="M2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="N2" t="n">
         <v>605359.9497675044</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675041</v>
       </c>
       <c r="O2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26420,46 @@
         <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>86694.40323307096</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719911</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719813</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719766</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719718</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719611</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719618</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719618</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719424</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-725022.092164296</v>
+        <v>-725022.0921642963</v>
       </c>
       <c r="C6" t="n">
-        <v>389729.6914116236</v>
+        <v>389729.691411624</v>
       </c>
       <c r="D6" t="n">
-        <v>228525.8431634099</v>
+        <v>389729.6914116238</v>
       </c>
       <c r="E6" t="n">
-        <v>171317.5896745223</v>
+        <v>-10755.39014266804</v>
       </c>
       <c r="F6" t="n">
-        <v>496730.0514818773</v>
+        <v>496730.0514818779</v>
       </c>
       <c r="G6" t="n">
-        <v>496730.0514818773</v>
+        <v>496730.0514818774</v>
       </c>
       <c r="H6" t="n">
-        <v>496730.0514818773</v>
+        <v>496730.0514818776</v>
       </c>
       <c r="I6" t="n">
+        <v>496730.0514818775</v>
+      </c>
+      <c r="J6" t="n">
+        <v>329124.8736718948</v>
+      </c>
+      <c r="K6" t="n">
+        <v>496730.0514818774</v>
+      </c>
+      <c r="L6" t="n">
+        <v>496730.0514818775</v>
+      </c>
+      <c r="M6" t="n">
+        <v>364122.7577529507</v>
+      </c>
+      <c r="N6" t="n">
         <v>496730.0514818776</v>
-      </c>
-      <c r="J6" t="n">
-        <v>329124.8736718951</v>
-      </c>
-      <c r="K6" t="n">
-        <v>496730.0514818775</v>
-      </c>
-      <c r="L6" t="n">
-        <v>448436.0814736867</v>
-      </c>
-      <c r="M6" t="n">
-        <v>411675.023546366</v>
-      </c>
-      <c r="N6" t="n">
-        <v>496730.0514818773</v>
       </c>
       <c r="O6" t="n">
         <v>496730.0514818775</v>
       </c>
       <c r="P6" t="n">
-        <v>496730.0514818775</v>
+        <v>496730.0514818772</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,16 +26792,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>95.34150212965517</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>341.8004903409014</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -27436,10 +27438,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27540,13 +27542,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>89.34462058478391</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.3613353340884</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>4.625563318117088</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>215.5717144517288</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27777,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,22 +27824,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>267.9144749636177</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>201.1568951983997</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>11.86585344386509</v>
+        <v>154.539378319846</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>145.5059605868256</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>74.32920489499691</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -30223,7 +30225,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30393,7 +30395,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31847,31 +31849,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>583.1096135868578</v>
+        <v>620.1193660647493</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32081,16 +32083,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>533.6019216797995</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32318,19 +32320,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>297.7596336167232</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32549,7 +32551,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32567,13 +32569,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>270.4557004614713</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32792,25 +32794,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>265.5442652399247</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32959,7 +32961,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
         <v>790.8204499236507</v>
@@ -33023,28 +33025,28 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>354.9153144485699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33263,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33439,7 +33441,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33494,28 +33496,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>209.9499448422519</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33731,19 +33733,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>409.0029787211721</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33755,10 +33757,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>175.960367665998</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>610.054682604365</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>339.3493584601592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179092</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>522.015880398028</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>566.6829634324469</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>316.33863094917</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939913</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091748</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>186.587496243485</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235324</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>122.9351598697829</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>440.9755796648395</v>
+        <v>477.985332142731</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096351</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899212</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35729,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>395.0475418999253</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>163.785226202393</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36215,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>136.4812930471411</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36440,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>134.2025531565914</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36607,7 +36609,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36616,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>220.9409070342396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.0464832629532</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.0464832629532</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37087,10 +37089,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>71.3955650623777</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.0464832629532</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>266.8689447991538</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37403,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.0464832629532</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060317</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,16 +37624,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>471.5003028244908</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>200.7949786802851</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>25.73094315394525</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2357649.995754168</v>
+        <v>2353512.838504016</v>
       </c>
     </row>
     <row r="7">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>324.8785754057453</v>
       </c>
       <c r="G2" t="n">
-        <v>69.74721243205259</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -828,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>15.45197461911665</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>98.85349985820704</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>402.2504824235943</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>196.699784115679</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>23.94563726208645</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>50.9807481254283</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987943</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>173.2128801502889</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>208.8990535094725</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>111.5109739231593</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>211.8979492262037</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>176.1811323375794</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>64.91921363453658</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>136.1078891637031</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>176.76214411214</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>105.1820732698676</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808204</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,13 +2295,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>180.0179497934419</v>
       </c>
       <c r="W22" t="n">
-        <v>245.8796921214428</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>135.3135037226517</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>162.1944220709591</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>80.6784213964369</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>120.1447214650588</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>146.4649598217087</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>275.330023919727</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>99.9742741983392</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>0.8253826161909164</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>153.0235456673302</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922734</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>175.5375697851077</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3909,13 +3909,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>19.91555826189058</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1287.435190625613</v>
+        <v>1588.713578732508</v>
       </c>
       <c r="C2" t="n">
-        <v>918.472673685201</v>
+        <v>1219.751061792097</v>
       </c>
       <c r="D2" t="n">
-        <v>918.472673685201</v>
+        <v>861.4853631853464</v>
       </c>
       <c r="E2" t="n">
-        <v>532.6844210869567</v>
+        <v>861.4853631853464</v>
       </c>
       <c r="F2" t="n">
-        <v>121.6985162973492</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W2" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X2" t="n">
-        <v>2064.174362665546</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="Y2" t="n">
-        <v>1674.035030689734</v>
+        <v>1975.31341879663</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341572</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1614.486495938517</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
         <v>2175.502629736639</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>552.5163874949501</v>
+        <v>367.0729169938204</v>
       </c>
       <c r="C4" t="n">
-        <v>383.5802045670432</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D4" t="n">
-        <v>383.5802045670432</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E4" t="n">
-        <v>383.5802045670432</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>383.5802045670432</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>215.5937398753218</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>66.85484173882801</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U4" t="n">
-        <v>1216.838891429094</v>
+        <v>1313.615619210438</v>
       </c>
       <c r="V4" t="n">
-        <v>962.1544032232072</v>
+        <v>1058.931131004551</v>
       </c>
       <c r="W4" t="n">
-        <v>962.1544032232072</v>
+        <v>769.5139609675903</v>
       </c>
       <c r="X4" t="n">
-        <v>734.1648523251898</v>
+        <v>769.5139609675903</v>
       </c>
       <c r="Y4" t="n">
-        <v>734.1648523251898</v>
+        <v>548.7213818240601</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>827.490450019752</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C5" t="n">
-        <v>827.490450019752</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D5" t="n">
-        <v>469.2247514130015</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>469.2247514130015</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>62.9111328033102</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664336</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.695380320765</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>1977.695380320765</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X5" t="n">
-        <v>1604.229622059685</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="Y5" t="n">
-        <v>1214.090290083874</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4634,37 +4634,37 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370162</v>
+        <v>168.0008189145203</v>
       </c>
       <c r="K6" t="n">
-        <v>551.6025748766943</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L6" t="n">
-        <v>846.3061319081661</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687205</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4685,7 +4685,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>665.1026499885493</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C7" t="n">
-        <v>496.1664670606424</v>
+        <v>837.0793422748035</v>
       </c>
       <c r="D7" t="n">
-        <v>346.0498276483066</v>
+        <v>686.9627028624677</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>539.0496092800746</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800313</v>
+        <v>392.1596617821642</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800313</v>
+        <v>224.1731970904428</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800313</v>
+        <v>75.43429895394902</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4761,16 +4761,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1584.950414897297</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1295.533244860336</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X7" t="n">
-        <v>1067.543693962319</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y7" t="n">
-        <v>846.751114818789</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>759.7040301531877</v>
+        <v>1201.12525314008</v>
       </c>
       <c r="C8" t="n">
-        <v>759.7040301531877</v>
+        <v>832.1627361996682</v>
       </c>
       <c r="D8" t="n">
-        <v>759.7040301531877</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E8" t="n">
-        <v>373.9157775549434</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>366.9702768057399</v>
+        <v>62.9111328033102</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872922</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923563</v>
@@ -4822,34 +4822,34 @@
         <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723852</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>2262.677615724315</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W8" t="n">
-        <v>1909.908960454201</v>
+        <v>2351.330183441093</v>
       </c>
       <c r="X8" t="n">
-        <v>1536.443202193121</v>
+        <v>1977.864425180013</v>
       </c>
       <c r="Y8" t="n">
-        <v>1146.303870217309</v>
+        <v>1587.725093204202</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310616</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625334</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
-        <v>1227.201367341572</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1861.380351120611</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>2193.450786296773</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2440.63352012907</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.24678656800314</v>
+        <v>461.9138669598626</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24678656800314</v>
+        <v>461.9138669598626</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800314</v>
+        <v>311.7972275475269</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800314</v>
+        <v>163.8841339651337</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312206</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1225.779039682638</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>971.0945514767509</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>681.6773814397902</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X10" t="n">
-        <v>453.6878305417729</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y10" t="n">
-        <v>232.8952513982428</v>
+        <v>643.5623317901023</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5059,7 +5059,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5123,25 +5123,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2269.002343845332</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U13" t="n">
-        <v>2131.487582220359</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V13" t="n">
-        <v>1876.803094014472</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1587.385923977512</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079494</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,7 +5293,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5317,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5506,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5603,19 +5603,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>810.0653816078141</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>641.1291986799072</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>491.0125592675714</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2273.672861378251</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1984.597634722449</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1729.913146516562</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1440.495976479601</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>1212.506425581584</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>991.7138464380538</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5794,7 +5794,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1977.461080510508</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5971,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>916.2946447138411</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C25" t="n">
-        <v>916.2946447138411</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2100.27549966854</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1811.200273012738</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.2946447138411</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1052.829365488567</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C28" t="n">
-        <v>883.8931825606599</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D28" t="n">
-        <v>733.7765431483241</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="E28" t="n">
-        <v>585.863449565931</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>438.9735020680206</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2227.361618603201</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1972.677130397314</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1683.259960360354</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X28" t="n">
-        <v>1455.270409462336</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y28" t="n">
-        <v>1234.477830318806</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="32">
@@ -6685,25 +6685,25 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,22 +6715,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>2383.002557118213</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>2453.684166529967</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3051.062654156519</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>3678.660617711126</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4230.570347950413</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558405</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630498</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>2438.670847218162</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E34" t="n">
-        <v>2438.670847218162</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F34" t="n">
-        <v>2438.670847218162</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6928,28 +6928,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7019,22 +7019,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998286</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1106.346450813424</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,37 +7189,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263531</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356241</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232883</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429848</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1975.033022579363</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1685.615852542402</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1457.626301644385</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093771</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,19 +7399,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7502,16 +7502,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7557,16 +7557,16 @@
         <v>113.9333885650331</v>
       </c>
       <c r="F43" t="n">
-        <v>113.9333885650331</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>113.9333885650331</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>2231.588527385791</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>2828.967015012343</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>3456.56497856695</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>4008.474708806237</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4432.097858301305</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4665.359518676188</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,22 +8057,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>114.3555089013352</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>231.2582814363238</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>54.95314511566558</v>
       </c>
       <c r="K6" t="n">
-        <v>129.7511347056851</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179986</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179985</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071651</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.454437538928261</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154984</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>4.845153664065236</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>221.2652607547076</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>31.1389319349247</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>75.37549921168795</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>112.2233770574207</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>72.11969353038606</v>
       </c>
       <c r="W22" t="n">
-        <v>40.64330621514819</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>13.30196929556061</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>55.21102825632917</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>65.75554125013227</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>45.37941682721006</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>2.150513196503681</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>10.85445046951713</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>65.54986409392964</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>26.80843451460709</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>43.04708356698711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25797,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>120.3791545843333</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>813855.9833051417</v>
+        <v>813855.9833051418</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>813855.9833051417</v>
+        <v>813855.9833051418</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.327398213</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.327398213</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
         <v>605359.9497675044</v>
@@ -26331,28 +26331,28 @@
         <v>605359.9497675042</v>
       </c>
       <c r="H2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="J2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="K2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="L2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="M2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="N2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="O2" t="n">
         <v>605359.9497675045</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.949767504</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.9497675042</v>
       </c>
       <c r="P2" t="n">
         <v>605359.9497675041</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245456</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099825</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,7 +26426,7 @@
         <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
         <v>7507.368461719667</v>
@@ -26438,7 +26438,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719632</v>
       </c>
       <c r="J4" t="n">
         <v>7507.368461719667</v>
@@ -26447,7 +26447,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719729</v>
       </c>
       <c r="M4" t="n">
         <v>7507.368461719667</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
+        <v>92937.7724398447</v>
+      </c>
+      <c r="D5" t="n">
         <v>92937.77243984473</v>
-      </c>
-      <c r="D5" t="n">
-        <v>92937.77243984475</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-725022.0921642963</v>
+        <v>-725022.092164296</v>
       </c>
       <c r="C6" t="n">
-        <v>389729.691411624</v>
+        <v>389729.6914116234</v>
       </c>
       <c r="D6" t="n">
-        <v>389729.6914116238</v>
+        <v>389729.6914116235</v>
       </c>
       <c r="E6" t="n">
-        <v>-10755.39014266804</v>
+        <v>-11102.76939702503</v>
       </c>
       <c r="F6" t="n">
-        <v>496730.0514818779</v>
+        <v>496382.6722275207</v>
       </c>
       <c r="G6" t="n">
-        <v>496730.0514818774</v>
+        <v>496382.6722275204</v>
       </c>
       <c r="H6" t="n">
-        <v>496730.0514818776</v>
+        <v>496382.6722275206</v>
       </c>
       <c r="I6" t="n">
-        <v>496730.0514818775</v>
+        <v>496382.6722275204</v>
       </c>
       <c r="J6" t="n">
-        <v>329124.8736718948</v>
+        <v>328777.4944175379</v>
       </c>
       <c r="K6" t="n">
-        <v>496730.0514818774</v>
+        <v>496382.6722275207</v>
       </c>
       <c r="L6" t="n">
-        <v>496730.0514818775</v>
+        <v>496382.6722275204</v>
       </c>
       <c r="M6" t="n">
-        <v>364122.7577529507</v>
+        <v>363775.3784985938</v>
       </c>
       <c r="N6" t="n">
-        <v>496730.0514818776</v>
+        <v>496382.6722275203</v>
       </c>
       <c r="O6" t="n">
-        <v>496730.0514818775</v>
+        <v>496382.6722275207</v>
       </c>
       <c r="P6" t="n">
-        <v>496730.0514818772</v>
+        <v>496382.6722275203</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175392</v>
+      </c>
+      <c r="C3" t="n">
+        <v>934.0648921175392</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175393</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175393</v>
-      </c>
-      <c r="D3" t="n">
-        <v>934.0648921175396</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="D4" t="n">
         <v>640.5848321000391</v>
-      </c>
-      <c r="D4" t="n">
-        <v>640.5848321000392</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>433.9106082241344</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>81.99747033596617</v>
       </c>
       <c r="G2" t="n">
-        <v>341.8004903409014</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27548,16 +27548,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>89.34462058478391</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>187.3736542629936</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.625563318117088</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>173.03131656279</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>80.85095794181413</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,10 +27833,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>201.1568951983997</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27912,10 +27912,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>154.539378319846</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>140.3419152079405</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28016,13 +28016,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>33.91007409977195</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28061,13 +28061,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>74.32920489499691</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -30225,7 +30225,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30395,7 +30395,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31293,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31314,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31363,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31375,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31469,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31478,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181061</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491901</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767382</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342227</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166597</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.567854187451</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575842</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997904</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31676,22 +31676,22 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31700,22 +31700,22 @@
         <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069564</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32080,28 +32080,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>610.054682604365</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32323,22 +32323,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>431.3680753731354</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,16 +32560,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33441,7 +33441,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33502,10 +33502,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>209.9499448422519</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>175.960367665998</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33979,25 +33979,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34222,10 +34222,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>426.9501404413636</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179092</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>412.0358695391854</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>566.6829634324469</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34801,7 +34801,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>117.933366006583</v>
       </c>
       <c r="K6" t="n">
-        <v>316.33863094917</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000391</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35108,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225038</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.806230106751</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376318</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949729</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402558</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939913</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091748</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.587496243485</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378504</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000392</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000392</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961232</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235324</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>122.9351598697829</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870598</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35339,7 +35339,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35348,10 +35348,10 @@
         <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805409</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>471.5003028244908</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,22 +35971,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>297.3936679588052</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,16 +36208,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37150,10 +37150,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>71.3955650623777</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37870,10 +37870,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>295.6084283580303</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394525</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2353512.838504016</v>
+        <v>2355273.368806801</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12383593.48435851</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9469683.420320923</v>
+        <v>9469683.420320921</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>324.8785754057453</v>
+        <v>79.82547003249388</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -822,22 +822,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>77.21619667811751</v>
       </c>
       <c r="U4" t="n">
-        <v>98.85349985820704</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>196.6997841156808</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>196.699784115679</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>60.24399451265918</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>23.94563726208645</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>286.5888679426079</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>208.8990535094725</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>90.69811547110092</v>
       </c>
       <c r="F10" t="n">
-        <v>111.5109739231593</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>176.1811323375794</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>212.8988206105702</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>136.1078891637031</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>41.55695577161238</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>94.30373791808204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V22" t="n">
-        <v>180.0179497934419</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>162.1944220709591</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>88.98787776789642</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>80.6784213964369</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>146.4649598217087</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>126.9263824507384</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3037,10 +3037,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8253826161909164</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.0235456673302</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>19.91555826189057</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1588.713578732508</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="C2" t="n">
-        <v>1219.751061792097</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="D2" t="n">
-        <v>861.4853631853464</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="E2" t="n">
-        <v>861.4853631853464</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4330,16 +4330,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4366,16 +4366,16 @@
         <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1975.31341879663</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1975.31341879663</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1975.31341879663</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4403,7 +4403,7 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4412,25 +4412,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605188</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>1092.885047004312</v>
+        <v>717.852508549538</v>
       </c>
       <c r="M3" t="n">
-        <v>1456.147065963532</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560478</v>
+        <v>1468.399656105704</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1800.470091281866</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>367.0729169938204</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>198.1367340659135</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>198.1367340659135</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4509,31 +4509,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269233</v>
+        <v>1558.449961813773</v>
       </c>
       <c r="U4" t="n">
-        <v>1313.615619210438</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="V4" t="n">
-        <v>1058.931131004551</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="W4" t="n">
-        <v>769.5139609675903</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="X4" t="n">
-        <v>769.5139609675903</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="Y4" t="n">
-        <v>548.7213818240601</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4555,58 +4555,58 @@
         <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>62.91113280331021</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872922</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="X5" t="n">
         <v>2363.652677778257</v>
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4634,37 +4634,37 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J6" t="n">
-        <v>168.0008189145203</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>614.543024838023</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694948</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828715</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601822</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434119</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4685,7 +4685,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1006.01552520271</v>
+        <v>281.0354892056668</v>
       </c>
       <c r="C7" t="n">
-        <v>837.0793422748035</v>
+        <v>112.0993062777599</v>
       </c>
       <c r="D7" t="n">
-        <v>686.9627028624677</v>
+        <v>112.0993062777599</v>
       </c>
       <c r="E7" t="n">
-        <v>539.0496092800746</v>
+        <v>112.0993062777599</v>
       </c>
       <c r="F7" t="n">
-        <v>392.1596617821642</v>
+        <v>112.0993062777599</v>
       </c>
       <c r="G7" t="n">
-        <v>224.1731970904428</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="H7" t="n">
-        <v>75.43429895394902</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312205</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4746,31 +4746,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="W7" t="n">
-        <v>1636.446120074497</v>
+        <v>281.0354892056668</v>
       </c>
       <c r="X7" t="n">
-        <v>1408.45656917648</v>
+        <v>281.0354892056668</v>
       </c>
       <c r="Y7" t="n">
-        <v>1187.66399003295</v>
+        <v>281.0354892056668</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1201.12525314008</v>
+        <v>728.3028554854586</v>
       </c>
       <c r="C8" t="n">
-        <v>832.1627361996682</v>
+        <v>359.3403385450469</v>
       </c>
       <c r="D8" t="n">
-        <v>473.8970375929177</v>
+        <v>69.85663355251367</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>69.85663355251367</v>
       </c>
       <c r="F8" t="n">
         <v>62.9111328033102</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230818</v>
@@ -4822,34 +4822,34 @@
         <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400156</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="W8" t="n">
-        <v>2351.330183441093</v>
+        <v>1878.507785786472</v>
       </c>
       <c r="X8" t="n">
-        <v>1977.864425180013</v>
+        <v>1505.042027525392</v>
       </c>
       <c r="Y8" t="n">
-        <v>1587.725093204202</v>
+        <v>1114.90269554958</v>
       </c>
     </row>
     <row r="9">
@@ -4880,16 +4880,16 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>614.5430248380218</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>909.2465818694936</v>
       </c>
       <c r="M9" t="n">
         <v>1272.508600828714</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.9138669598626</v>
+        <v>461.9138669598628</v>
       </c>
       <c r="C10" t="n">
-        <v>461.9138669598626</v>
+        <v>292.977684031956</v>
       </c>
       <c r="D10" t="n">
-        <v>311.7972275475269</v>
+        <v>142.8610446196202</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8841339651337</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312206</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L10" t="n">
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>1381.761631868611</v>
       </c>
       <c r="W10" t="n">
         <v>1092.34446183165</v>
       </c>
       <c r="X10" t="n">
-        <v>864.3549109336325</v>
+        <v>864.3549109336327</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5623317901023</v>
+        <v>643.5623317901026</v>
       </c>
     </row>
     <row r="11">
@@ -5023,13 +5023,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,28 +5038,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5226,16 +5226,16 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2269.002343845332</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2049.400878868273</v>
+        <v>2049.058935487114</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868273</v>
+        <v>1759.983708831312</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="W13" t="n">
         <v>1505.299220625425</v>
@@ -5272,43 +5272,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5317,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C16" t="n">
-        <v>558.0193492433381</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2185.384895601573</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5527,10 +5527,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5743,31 +5743,31 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>636.6680198981028</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>467.7318369701959</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2100.27549966854</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1811.200273012738</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1556.515784806851</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1267.09861476989</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1039.109063871873</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>818.3164847283425</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,37 +6217,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.2707707770323</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>634.3345878491255</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D28" t="n">
-        <v>484.2179484367897</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.70136564882</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9192356072721</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>801.6918836311989</v>
+        <v>513.8536007400676</v>
       </c>
       <c r="C31" t="n">
-        <v>632.7557007032921</v>
+        <v>513.8536007400676</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277318</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277318</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277318</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6627,46 +6627,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797706</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138374</v>
       </c>
       <c r="Y31" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703073</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6694,25 +6694,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,31 +6721,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>94.65038286230612</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6928,16 +6928,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6946,13 +6946,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,16 +6970,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>782.8410298377091</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1327.139029956954</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1106.346450813424</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7399,19 +7399,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8464821474262</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>113.9333885650331</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7830,10 +7830,10 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
         <v>2035.268256189238</v>
@@ -8060,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>114.3555089013352</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>193.3273467878345</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>54.95314511566558</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787834</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878346</v>
+        <v>193.3273467878338</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154984</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23466,19 +23466,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>4.845153664065236</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>4.506629716718038</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>31.1389319349247</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.4693302300322</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V22" t="n">
-        <v>72.11969353038606</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>55.21102825632917</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>78.25894333073141</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>65.75554125013227</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>2.150513196503681</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>38.59775584153041</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>139.469330230033</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26.80843451460709</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>813855.9833051417</v>
+        <v>813855.9833051418</v>
       </c>
     </row>
     <row r="16">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982126</v>
+      </c>
+      <c r="C2" t="n">
         <v>615781.3273982127</v>
       </c>
-      <c r="C2" t="n">
-        <v>615781.3273982124</v>
-      </c>
       <c r="D2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.327398213</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="F2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="G2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="F2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="G2" t="n">
-        <v>605359.9497675042</v>
-      </c>
       <c r="H2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="I2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="I2" t="n">
-        <v>605359.9497675042</v>
-      </c>
       <c r="J2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="L2" t="n">
         <v>605359.9497675041</v>
@@ -26349,13 +26349,13 @@
         <v>605359.9497675042</v>
       </c>
       <c r="N2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="O2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="O2" t="n">
-        <v>605359.9497675045</v>
-      </c>
       <c r="P2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675047</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.469155386075727e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245454</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>9.129322781267672e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467442</v>
       </c>
       <c r="D4" t="n">
         <v>133113.8635467443</v>
@@ -26432,25 +26432,25 @@
         <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719642</v>
       </c>
       <c r="H4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719632</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
+        <v>7507.368461719616</v>
+      </c>
+      <c r="L4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="L4" t="n">
-        <v>7507.368461719729</v>
-      </c>
       <c r="M4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719628</v>
       </c>
       <c r="N4" t="n">
         <v>7507.368461719667</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984476</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-725022.092164296</v>
+        <v>-725022.0921642964</v>
       </c>
       <c r="C6" t="n">
-        <v>389729.6914116234</v>
+        <v>389729.6914116236</v>
       </c>
       <c r="D6" t="n">
-        <v>389729.6914116235</v>
+        <v>389729.691411624</v>
       </c>
       <c r="E6" t="n">
-        <v>-11102.76939702503</v>
+        <v>-10790.12806810338</v>
       </c>
       <c r="F6" t="n">
-        <v>496382.6722275207</v>
+        <v>496695.3135564412</v>
       </c>
       <c r="G6" t="n">
-        <v>496382.6722275204</v>
+        <v>496695.3135564419</v>
       </c>
       <c r="H6" t="n">
-        <v>496382.6722275206</v>
+        <v>496695.3135564416</v>
       </c>
       <c r="I6" t="n">
-        <v>496382.6722275204</v>
+        <v>496695.3135564419</v>
       </c>
       <c r="J6" t="n">
-        <v>328777.4944175379</v>
+        <v>329090.1357464591</v>
       </c>
       <c r="K6" t="n">
-        <v>496382.6722275207</v>
+        <v>496695.3135564416</v>
       </c>
       <c r="L6" t="n">
-        <v>496382.6722275204</v>
+        <v>496695.3135564416</v>
       </c>
       <c r="M6" t="n">
-        <v>363775.3784985938</v>
+        <v>364088.0198275152</v>
       </c>
       <c r="N6" t="n">
-        <v>496382.6722275203</v>
+        <v>496695.3135564417</v>
       </c>
       <c r="O6" t="n">
-        <v>496382.6722275207</v>
+        <v>496695.3135564416</v>
       </c>
       <c r="P6" t="n">
-        <v>496382.6722275203</v>
+        <v>496695.3135564422</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000393</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241342</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>81.99747033596617</v>
+        <v>327.0505757092176</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27542,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>143.5324993190944</v>
       </c>
       <c r="U4" t="n">
-        <v>187.3736542629936</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27636,7 +27636,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>54.34546601278117</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>173.03131656279</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>106.062605532145</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>80.85095794181413</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>68.09417367807504</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27912,10 +27912,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>140.3419152079405</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>55.73584717546825</v>
       </c>
       <c r="F10" t="n">
-        <v>33.91007409977195</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -29699,7 +29699,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>-3.758651504979533e-12</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29988,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-8.682195192673605e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -31041,34 +31041,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31077,13 +31077,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,34 +31120,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,34 +31278,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31314,13 +31314,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,34 +31357,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31393,10 +31393,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31442,19 +31442,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31676,22 +31676,22 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31700,22 +31700,22 @@
         <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31852,19 +31852,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,28 +34780,28 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>412.0358695391854</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>443.0068759113669</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>117.933366006583</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313189</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939913</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313194</v>
+        <v>379.9148430313188</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235324</v>
       </c>
       <c r="Q9" t="n">
         <v>326.5580100667037</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35339,7 +35339,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35348,10 +35348,10 @@
         <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
         <v>735.3001107902948</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35500,19 +35500,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
-        <v>191.358233988438</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36995,7 +36995,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191277</v>
       </c>
       <c r="M31" t="n">
         <v>426.2724270010451</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
